--- a/ClueInitFiles/data/ClueLayoutColor.xlsx
+++ b/ClueInitFiles/data/ClueLayoutColor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\ClueGame\ClueInitFiles\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96E40BFD-F672-4BBB-8288-92E63741900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8F7DEF4E-D267-4822-9CAE-5FDC58521DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{4E7ECD27-46A9-4881-883E-5276EA3726F4}"/>
+    <workbookView xWindow="-25800" yWindow="0" windowWidth="25800" windowHeight="21600" xr2:uid="{4E7ECD27-46A9-4881-883E-5276EA3726F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ClueLayoutColor" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="46">
   <si>
     <t>X</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>Door Direction Test((in FileInitTest))</t>
+  </si>
+  <si>
+    <t>testAdjacenciesRooms ()</t>
+  </si>
+  <si>
+    <t>Tested  to ensure not a door(FileInitTests)</t>
+  </si>
+  <si>
+    <t>AdjacentDoors/rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjacen twalkways </t>
   </si>
 </sst>
 </file>
@@ -301,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +513,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,6 +526,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,17 +708,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1058,16 +1105,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5926E8-BE8D-4E4A-801F-E1108FD0F9E5}">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1109,7 +1156,7 @@
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -1152,6 +1199,9 @@
         <v>0</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1">
         <v>0</v>
       </c>
     </row>
@@ -1159,7 +1209,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1242,6 +1292,9 @@
       </c>
       <c r="AC2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
       </c>
       <c r="AE2" t="s">
         <v>39</v>
@@ -1335,12 +1388,15 @@
       <c r="AC3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="11"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1352,7 +1408,7 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1364,16 +1420,16 @@
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1385,7 +1441,7 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
@@ -1397,16 +1453,16 @@
       <c r="R4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="4" t="s">
+      <c r="T4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="W4" s="3" t="s">
@@ -1418,7 +1474,7 @@
       <c r="Y4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="AA4" s="3" t="s">
@@ -1430,12 +1486,15 @@
       <c r="AC4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1459,16 +1518,16 @@
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1492,16 +1551,16 @@
       <c r="R5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="4" t="s">
+      <c r="S5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="W5" s="3" t="s">
@@ -1525,9 +1584,15 @@
       <c r="AC5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
+      <c r="AD5" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1548,22 +1613,22 @@
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1581,22 +1646,22 @@
       <c r="Q6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6" s="4" t="s">
+      <c r="R6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="X6" s="3" t="s">
@@ -1617,9 +1682,15 @@
       <c r="AC6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
+      <c r="AD6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1637,28 +1708,28 @@
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -1670,28 +1741,28 @@
       <c r="P7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" s="4" t="s">
+      <c r="Q7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -1709,84 +1780,92 @@
       <c r="AC7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AD7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="7" t="s">
+      <c r="P8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AA8" s="1" t="s">
@@ -1798,6 +1877,14 @@
       <c r="AC8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AD8" s="10">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1809,73 +1896,73 @@
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="4" t="s">
+      <c r="D9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA9" s="1" t="s">
@@ -1886,6 +1973,9 @@
       </c>
       <c r="AC9" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -1898,73 +1988,73 @@
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="4" t="s">
+      <c r="M10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="4" t="s">
+      <c r="S10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA10" s="1" t="s">
@@ -1975,6 +2065,9 @@
       </c>
       <c r="AC10" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -1987,25 +2080,25 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2017,13 +2110,13 @@
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="4" t="s">
+      <c r="N11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -2035,25 +2128,25 @@
       <c r="S11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="4" t="s">
+      <c r="T11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA11" s="1" t="s">
@@ -2064,34 +2157,37 @@
       </c>
       <c r="AC11" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -2127,22 +2223,22 @@
       <c r="T12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="4" t="s">
+      <c r="U12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA12" s="1" t="s">
@@ -2153,6 +2249,9 @@
       </c>
       <c r="AC12" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -2171,16 +2270,16 @@
       <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2216,22 +2315,22 @@
       <c r="T13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="4" t="s">
+      <c r="U13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA13" s="1" t="s">
@@ -2242,6 +2341,9 @@
       </c>
       <c r="AC13" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -2263,16 +2365,16 @@
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -2302,25 +2404,25 @@
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="4" t="s">
+      <c r="T14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA14" s="1" t="s">
@@ -2331,6 +2433,9 @@
       </c>
       <c r="AC14" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -2355,16 +2460,16 @@
       <c r="G15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -2388,28 +2493,28 @@
       <c r="R15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X15" s="7" t="s">
+      <c r="S15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Y15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="4" t="s">
+      <c r="Y15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA15" s="1" t="s">
@@ -2420,6 +2525,9 @@
       </c>
       <c r="AC15" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -2432,7 +2540,7 @@
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2444,16 +2552,16 @@
       <c r="G16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="I16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -2474,16 +2582,16 @@
       <c r="Q16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="4" t="s">
+      <c r="R16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -2510,8 +2618,11 @@
       <c r="AC16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AD16" s="10">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2533,16 +2644,16 @@
       <c r="G17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2560,16 +2671,16 @@
       <c r="P17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="4" t="s">
+      <c r="Q17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="U17" s="3" t="s">
@@ -2599,8 +2710,11 @@
       <c r="AC17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AD17" s="10">
+        <v>16</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,19 +2733,19 @@
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -2646,16 +2760,16 @@
       <c r="O18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="4" t="s">
+      <c r="P18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T18" s="3" t="s">
@@ -2688,8 +2802,11 @@
       <c r="AC18" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD18" s="10">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2705,22 +2822,22 @@
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -2735,16 +2852,16 @@
       <c r="O19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S19" s="4" t="s">
+      <c r="P19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T19" s="3" t="s">
@@ -2777,8 +2894,11 @@
       <c r="AC19" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD19" s="10">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2788,28 +2908,28 @@
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -2824,16 +2944,16 @@
       <c r="O20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" s="4" t="s">
+      <c r="P20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T20" s="3" t="s">
@@ -2866,8 +2986,11 @@
       <c r="AC20" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD20" s="10">
+        <v>19</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -2877,28 +3000,28 @@
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="D21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -2913,16 +3036,16 @@
       <c r="O21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" s="7" t="s">
+      <c r="P21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T21" s="3" t="s">
@@ -2940,7 +3063,7 @@
       <c r="X21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y21" s="5" t="s">
+      <c r="Y21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="Z21" s="3" t="s">
@@ -2955,8 +3078,11 @@
       <c r="AC21" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD21" s="10">
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -2966,28 +3092,28 @@
       <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -3002,16 +3128,16 @@
       <c r="O22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S22" s="4" t="s">
+      <c r="P22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T22" s="3" t="s">
@@ -3044,8 +3170,11 @@
       <c r="AC22" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD22" s="10">
+        <v>21</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -3055,28 +3184,28 @@
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -3091,16 +3220,16 @@
       <c r="O23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S23" s="4" t="s">
+      <c r="P23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T23" s="3" t="s">
@@ -3133,8 +3262,11 @@
       <c r="AC23" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD23" s="10">
+        <v>22</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3150,22 +3282,22 @@
       <c r="E24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="F24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -3180,16 +3312,16 @@
       <c r="O24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S24" s="4" t="s">
+      <c r="P24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="3" t="s">
@@ -3222,8 +3354,11 @@
       <c r="AC24" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AD24" s="10">
+        <v>23</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3242,19 +3377,19 @@
       <c r="F25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="G25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -3272,16 +3407,16 @@
       <c r="P25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T25" s="4" t="s">
+      <c r="Q25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="U25" s="3" t="s">
@@ -3311,8 +3446,11 @@
       <c r="AC25" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AD25" s="10">
+        <v>24</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3334,16 +3472,16 @@
       <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="H26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -3364,16 +3502,16 @@
       <c r="Q26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U26" s="4" t="s">
+      <c r="R26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="V26" s="3" t="s">
@@ -3400,8 +3538,11 @@
       <c r="AC26" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AD26" s="10">
+        <v>25</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -3411,7 +3552,7 @@
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3423,16 +3564,16 @@
       <c r="G27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="I27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -3456,28 +3597,28 @@
       <c r="R27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X27" s="7" t="s">
+      <c r="S27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Y27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="4" t="s">
+      <c r="Y27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA27" s="1" t="s">
@@ -3489,8 +3630,11 @@
       <c r="AC27" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AD27" s="10">
+        <v>26</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -3512,16 +3656,16 @@
       <c r="G28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="H28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -3548,25 +3692,25 @@
       <c r="S28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z28" s="4" t="s">
+      <c r="T28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA28" s="1" t="s">
@@ -3578,8 +3722,11 @@
       <c r="AC28" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AD28" s="10">
+        <v>27</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3598,16 +3745,16 @@
       <c r="F29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="G29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -3640,22 +3787,22 @@
       <c r="T29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="4" t="s">
+      <c r="U29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA29" s="1" t="s">
@@ -3667,8 +3814,11 @@
       <c r="AC29" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AD29" s="10">
+        <v>28</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3684,16 +3834,16 @@
       <c r="E30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -3729,22 +3879,22 @@
       <c r="T30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z30" s="4" t="s">
+      <c r="U30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA30" s="1" t="s">
@@ -3756,33 +3906,36 @@
       <c r="AC30" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AD30" s="10">
+        <v>29</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -3797,13 +3950,13 @@
       <c r="M31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="4" t="s">
+      <c r="N31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="1" t="s">
@@ -3815,25 +3968,25 @@
       <c r="S31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="4" t="s">
+      <c r="T31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA31" s="1" t="s">
@@ -3845,8 +3998,11 @@
       <c r="AC31" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AD31" s="10">
+        <v>30</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -3856,25 +4012,25 @@
       <c r="C32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -3883,46 +4039,46 @@
       <c r="L32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="4" t="s">
+      <c r="M32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="4" t="s">
+      <c r="S32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA32" s="1" t="s">
@@ -3934,8 +4090,11 @@
       <c r="AC32" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AD32" s="10">
+        <v>31</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -3945,73 +4104,73 @@
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="4" t="s">
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AA33" s="1" t="s">
@@ -4023,8 +4182,11 @@
       <c r="AC33" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AD33" s="10">
+        <v>32</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -4034,73 +4196,73 @@
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z34" s="7" t="s">
+      <c r="P34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AA34" s="1" t="s">
@@ -4112,8 +4274,11 @@
       <c r="AC34" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="AD34" s="10">
+        <v>33</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -4129,28 +4294,28 @@
       <c r="E35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="4" t="s">
+      <c r="F35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -4162,28 +4327,28 @@
       <c r="P35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X35" s="4" t="s">
+      <c r="Q35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Y35" s="3" t="s">
@@ -4201,8 +4366,11 @@
       <c r="AC35" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AD35" s="10">
+        <v>34</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4221,22 +4389,22 @@
       <c r="F36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="4" t="s">
+      <c r="G36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -4254,22 +4422,22 @@
       <c r="Q36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W36" s="4" t="s">
+      <c r="R36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="X36" s="3" t="s">
@@ -4290,8 +4458,11 @@
       <c r="AC36" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AD36" s="10">
+        <v>35</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
@@ -4313,16 +4484,16 @@
       <c r="G37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="4" t="s">
+      <c r="H37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -4346,16 +4517,16 @@
       <c r="R37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V37" s="4" t="s">
+      <c r="S37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V37" s="5" t="s">
         <v>10</v>
       </c>
       <c r="W37" s="3" t="s">
@@ -4379,8 +4550,11 @@
       <c r="AC37" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="AD37" s="10">
+        <v>36</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
@@ -4390,7 +4564,7 @@
       <c r="C38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -4402,16 +4576,16 @@
       <c r="G38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="7" t="s">
+      <c r="H38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -4423,7 +4597,7 @@
       <c r="N38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="P38" s="3" t="s">
@@ -4435,16 +4609,16 @@
       <c r="R38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="S38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V38" s="4" t="s">
+      <c r="T38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="W38" s="3" t="s">
@@ -4456,7 +4630,7 @@
       <c r="Y38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Z38" s="5" t="s">
+      <c r="Z38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="AA38" s="3" t="s">
@@ -4468,8 +4642,11 @@
       <c r="AC38" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="AD38" s="10">
+        <v>37</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -4557,8 +4734,11 @@
       <c r="AC39" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="AD39" s="10">
+        <v>38</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -4640,14 +4820,17 @@
       <c r="AA40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB40" s="3" t="s">
+      <c r="AB40" s="12" t="s">
         <v>38</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AD40" s="10">
+        <v>39</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -4735,8 +4918,11 @@
       <c r="AC41" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AD41" s="10">
+        <v>40</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -4823,6 +5009,98 @@
       </c>
       <c r="AC42" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="AD42" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>11</v>
+      </c>
+      <c r="M43">
+        <v>12</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43">
+        <v>14</v>
+      </c>
+      <c r="P43">
+        <v>15</v>
+      </c>
+      <c r="Q43">
+        <v>16</v>
+      </c>
+      <c r="R43">
+        <v>17</v>
+      </c>
+      <c r="S43">
+        <v>18</v>
+      </c>
+      <c r="T43">
+        <v>19</v>
+      </c>
+      <c r="U43">
+        <v>20</v>
+      </c>
+      <c r="V43">
+        <v>21</v>
+      </c>
+      <c r="W43">
+        <v>22</v>
+      </c>
+      <c r="X43">
+        <v>23</v>
+      </c>
+      <c r="Y43">
+        <v>24</v>
+      </c>
+      <c r="Z43">
+        <v>25</v>
+      </c>
+      <c r="AA43">
+        <v>26</v>
+      </c>
+      <c r="AB43">
+        <v>27</v>
+      </c>
+      <c r="AC43">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ClueInitFiles/data/ClueLayoutColor.xlsx
+++ b/ClueInitFiles/data/ClueLayoutColor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\ClueGame\ClueInitFiles\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8F7DEF4E-D267-4822-9CAE-5FDC58521DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C88E7719-E123-4305-9D44-2A021DF89528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25800" yWindow="0" windowWidth="25800" windowHeight="21600" xr2:uid="{4E7ECD27-46A9-4881-883E-5276EA3726F4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="50">
   <si>
     <t>X</t>
   </si>
@@ -94,9 +94,6 @@
     <t>C#</t>
   </si>
   <si>
-    <t>C*</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -158,6 +155,21 @@
   </si>
   <si>
     <t xml:space="preserve">Adjacen twalkways </t>
+  </si>
+  <si>
+    <t>W&lt; (red)</t>
+  </si>
+  <si>
+    <t>Test Targets</t>
+  </si>
+  <si>
+    <t>Test Occupied</t>
+  </si>
+  <si>
+    <t>C*(Black)</t>
+  </si>
+  <si>
+    <t>&lt;&lt;===</t>
   </si>
 </sst>
 </file>
@@ -313,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +559,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -708,7 +732,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -730,6 +754,11 @@
     <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="8" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1108,7 +1137,7 @@
   <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -1392,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
@@ -1490,7 +1519,7 @@
         <v>3</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
@@ -1588,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -1686,7 +1715,7 @@
         <v>5</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -1784,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
@@ -1881,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
@@ -1977,6 +2006,11 @@
       <c r="AD9" s="10">
         <v>8</v>
       </c>
+      <c r="AE9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2069,6 +2103,11 @@
       <c r="AD10" s="10">
         <v>9</v>
       </c>
+      <c r="AE10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2448,7 +2487,7 @@
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2553,7 +2592,7 @@
         <v>17</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>10</v>
@@ -3045,7 +3084,7 @@
       <c r="R21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="25" t="s">
         <v>11</v>
       </c>
       <c r="T21" s="3" t="s">
@@ -3064,10 +3103,10 @@
         <v>22</v>
       </c>
       <c r="Y21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="Z21" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>22</v>
@@ -3101,7 +3140,7 @@
       <c r="F22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -3274,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>10</v>
@@ -3363,19 +3402,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>10</v>
@@ -3452,25 +3491,25 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>10</v>
@@ -3544,25 +3583,25 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>13</v>
@@ -3636,25 +3675,25 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>10</v>
@@ -3731,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>10</v>
@@ -3826,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>10</v>
@@ -4262,7 +4301,7 @@
       <c r="Y34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Z34" s="5" t="s">
+      <c r="Z34" s="22" t="s">
         <v>20</v>
       </c>
       <c r="AA34" s="1" t="s">
@@ -4286,79 +4325,79 @@
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="3" t="s">
+      <c r="Q35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="Z35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="AA35" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA35" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>0</v>
@@ -4375,85 +4414,85 @@
         <v>0</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="3" t="s">
+      <c r="R36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="Y36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="Z36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="AA36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="AB36" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB36" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>0</v>
@@ -4464,91 +4503,91 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="R37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="X37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="Y37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="Z37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="AA37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="AB37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="AC37" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC37" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="AD37" s="10">
         <v>36</v>
@@ -4556,25 +4595,25 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>10</v>
@@ -4589,25 +4628,25 @@
         <v>11</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S38" s="9" t="s">
         <v>13</v>
@@ -4622,25 +4661,25 @@
         <v>10</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z38" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="Z38" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD38" s="10">
         <v>37</v>
@@ -4648,91 +4687,91 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="S39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="X39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="Y39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="Z39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="AA39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="AB39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="AC39" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC39" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="AD39" s="10">
         <v>38</v>
@@ -4743,85 +4782,85 @@
         <v>0</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3" t="s">
+      <c r="R40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="Y40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="Z40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="AA40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z40" s="3" t="s">
+      <c r="AB40" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB40" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>0</v>
@@ -4838,79 +4877,79 @@
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
+      <c r="Q41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="Z41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="AA41" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>0</v>
